--- a/frontend/src/assets/template/mapping-template.xlsx
+++ b/frontend/src/assets/template/mapping-template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Bad\Github\irshad-itrans-react5\frontend\src\assets\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Bad\Github\irshad-itrans-react7\frontend\src\assets\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73FE1EA8-E828-42A1-85AC-65424571B8DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEE1553D-9E45-4303-94EA-E70A63C3B9A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>competency</t>
   </si>
@@ -44,13 +44,28 @@
     <t>expected_level</t>
   </si>
   <si>
-    <t>(ex. Organizational Awareness )</t>
+    <t>(eg. Organizational Awareness )</t>
   </si>
   <si>
-    <t>(ex. Executive )</t>
+    <t>(eg. 3 )</t>
   </si>
   <si>
-    <t>(ex. 3 )</t>
+    <t>competency_type</t>
+  </si>
+  <si>
+    <t>(eg. Core)</t>
+  </si>
+  <si>
+    <t>(eg. Human Resource Management System )</t>
+  </si>
+  <si>
+    <t>(eg. Functional)</t>
+  </si>
+  <si>
+    <t>(eg. Executive, Human Resource )</t>
+  </si>
+  <si>
+    <t>(eg. 4 )</t>
   </si>
 </sst>
 </file>
@@ -199,7 +214,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -377,6 +392,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -540,8 +561,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -587,7 +609,16 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -601,10 +632,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4A366E5F-175A-4323-88B9-8F44E2172F37}" name="Table1" displayName="Table1" ref="A1:C2" totalsRowShown="0">
-  <autoFilter ref="A1:C2" xr:uid="{4A366E5F-175A-4323-88B9-8F44E2172F37}"/>
-  <tableColumns count="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4A366E5F-175A-4323-88B9-8F44E2172F37}" name="Table1" displayName="Table1" ref="A1:D3" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:D3" xr:uid="{4A366E5F-175A-4323-88B9-8F44E2172F37}"/>
+  <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{70D76593-B824-46A3-A1E8-808953B867C5}" name="competency"/>
+    <tableColumn id="4" xr3:uid="{021B6FCF-55C0-4EE9-9C0F-A17608BC9E08}" name="competency_type"/>
     <tableColumn id="2" xr3:uid="{8FCA856B-6899-45B5-89AD-8DB89F2EAA3F}" name="position"/>
     <tableColumn id="3" xr3:uid="{C711607B-EA81-4C1A-894D-5AEBCB674690}" name="expected_level"/>
   </tableColumns>
@@ -613,9 +645,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -653,7 +685,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -759,7 +791,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -901,7 +933,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -909,39 +941,60 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.88671875" customWidth="1"/>
-    <col min="2" max="2" width="38.33203125" customWidth="1"/>
-    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="1" max="1" width="37.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
-        <v>5</v>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
